--- a/templates/HFR_Submission_Template_Wide.xlsx
+++ b/templates/HFR_Submission_Template_Wide.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="157">
   <si>
     <t>tx_curr.o15.m</t>
   </si>
@@ -1471,6 +1471,104 @@
   <si>
     <t>FACILITY OR COMMUNITY UID</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[full period] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>TX_MMD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+&lt;15 Female 
+6+ months</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[full period] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t>TX_MMD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1" tint="0.249977111117893"/>
+        <rFont val="Gill Sans MT"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+15+ Female 
+6+ months</t>
+    </r>
+  </si>
+  <si>
+    <t>[full period] 
+TX_MMD 
+&lt;15 Female 
+6+ months</t>
+  </si>
+  <si>
+    <t>[full period] 
+TX_MMD 
+15+ Female 
+6+ months</t>
+  </si>
 </sst>
 </file>
 
@@ -2428,7 +2526,7 @@
   <dimension ref="A1:J103"/>
   <sheetViews>
     <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -2461,7 +2559,7 @@
         <v>84</v>
       </c>
       <c r="C4" s="13">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -3298,7 +3396,7 @@
     </row>
     <row r="60" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B60" s="11" t="s">
-        <v>129</v>
+        <v>155</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>98</v>
@@ -3338,7 +3436,7 @@
     </row>
     <row r="62" spans="2:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B62" s="11" t="s">
-        <v>130</v>
+        <v>156</v>
       </c>
       <c r="C62" s="11" t="s">
         <v>100</v>
@@ -3437,7 +3535,7 @@
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3562,13 +3660,13 @@
         <v>115</v>
       </c>
       <c r="AL1" s="51" t="s">
-        <v>116</v>
+        <v>153</v>
       </c>
       <c r="AM1" s="51" t="s">
         <v>116</v>
       </c>
       <c r="AN1" s="51" t="s">
-        <v>117</v>
+        <v>154</v>
       </c>
       <c r="AO1" s="51" t="s">
         <v>117</v>
@@ -46614,7 +46712,7 @@
       <c r="AO1000" s="28"/>
     </row>
   </sheetData>
-  <sheetProtection password="B386" sheet="1" objects="1" scenarios="1" formatCells="0" insertRows="0" deleteRows="0" sort="0"/>
+  <sheetProtection sheet="1" objects="1" scenarios="1" formatCells="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/templates/HFR_Submission_Template_Wide.xlsx
+++ b/templates/HFR_Submission_Template_Wide.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achafetz\Documents\GitHub\Wavelength\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2F6A37C-16BE-4B08-B487-8F3B5170F976}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="405" windowWidth="27555" windowHeight="13005" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="meta" sheetId="2" r:id="rId1"/>
@@ -1573,7 +1579,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2183,6 +2189,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2204,7 +2213,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2231,6 +2246,100 @@
         </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>4705350</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7591425</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rectangle: Rounded Corners 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{637DAD91-5D69-41D7-A0CA-0E236D445EC5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9248775" y="219075"/>
+          <a:ext cx="2886075" cy="1362075"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent2"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>An alternative</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t> version of the wide template can be used during the COVID response (2020.07 onwards). Guidance has been modified to allow total numerators (no age sex) and full period reporting is acceptable for all indicators to reduce reporting burden.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:latin typeface="Gill Sans MT" panose="020B0502020104020203" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -2279,7 +2388,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2312,9 +2421,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2347,6 +2473,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2522,10 +2665,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J103"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" workbookViewId="0">
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2559,7 +2702,7 @@
         <v>84</v>
       </c>
       <c r="C4" s="13">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
     </row>
     <row r="5" spans="2:3" ht="15.75" x14ac:dyDescent="0.3">
@@ -3515,7 +3658,7 @@
     <row r="102" x14ac:dyDescent="0.25"/>
     <row r="103" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sheetProtection password="B386" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="MgudXspQaIpsnxq6hDvt64EidNiwGS978oJy5lrC/bJrlJEO6LUNCgfm7BfoBaG4OD3cfZEutgJBYnGDGteIuA==" saltValue="SbmJvqU7tsK8/VIUIMGSxA==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1"/>
   <conditionalFormatting sqref="C2:C3">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>LEN(C2)=0</formula>
@@ -3528,14 +3671,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AQ1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
